--- a/Time Sheet/Patrick.xlsx
+++ b/Time Sheet/Patrick.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t xml:space="preserve">Time recorded for: Patrick Cura – Database Evaluator </t>
   </si>
@@ -142,6 +142,28 @@
 Added initial time box items
 Updated DSDM methodology document
 Added Diagram for project</t>
+  </si>
+  <si>
+    <t>Updated sample code to use threads for background processing
+Updated DSDM methodology 
+Updated Project Diagram
+Added sample GUI with Progres Table</t>
+  </si>
+  <si>
+    <t>Updated Project Analysis
+Updated Project Proposal
+Updated sample code for GUI progress table</t>
+  </si>
+  <si>
+    <t>Updated time box items
+Updated logos for splash screen and main app
+Updated sample code which allows disabling of resizing of windows form</t>
+  </si>
+  <si>
+    <t>Week Sunday, 7 August - Saturday, 13 August 2016</t>
+  </si>
+  <si>
+    <t>Updated time sheet and had project meeting</t>
   </si>
 </sst>
 </file>
@@ -532,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,36 +920,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5">
@@ -950,17 +972,13 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5">
-        <v>5</v>
-      </c>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
@@ -970,7 +988,97 @@
       </c>
       <c r="D45" s="5">
         <f>SUM(D38:D44)</f>
-        <v>30</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="5">
+        <f>SUM(D49:D55)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Time Sheet/Patrick.xlsx
+++ b/Time Sheet/Patrick.xlsx
@@ -144,26 +144,27 @@
 Added Diagram for project</t>
   </si>
   <si>
+    <t>Updated Project Analysis
+Updated Project Proposal
+Updated sample code for GUI progress table</t>
+  </si>
+  <si>
+    <t>Updated time box items
+Updated logos for splash screen and main app
+Updated sample code which allows disabling of resizing of windows form</t>
+  </si>
+  <si>
+    <t>Week Sunday, 7 August - Saturday, 13 August 2016</t>
+  </si>
+  <si>
     <t>Updated sample code to use threads for background processing
 Updated DSDM methodology 
 Updated Project Diagram
-Added sample GUI with Progres Table</t>
-  </si>
-  <si>
-    <t>Updated Project Analysis
-Updated Project Proposal
-Updated sample code for GUI progress table</t>
-  </si>
-  <si>
-    <t>Updated time box items
-Updated logos for splash screen and main app
-Updated sample code which allows disabling of resizing of windows form</t>
-  </si>
-  <si>
-    <t>Week Sunday, 7 August - Saturday, 13 August 2016</t>
-  </si>
-  <si>
-    <t>Updated time sheet and had project meeting</t>
+Added sample GUI with Progress Table</t>
+  </si>
+  <si>
+    <t>Updated time sheet and had project meeting
+Added sample code for encrypting files</t>
   </si>
 </sst>
 </file>
@@ -554,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5">
@@ -937,11 +938,11 @@
         <v>8</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -949,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5">
@@ -988,12 +989,12 @@
       </c>
       <c r="D45" s="5">
         <f>SUM(D38:D44)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1010,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
@@ -1081,6 +1082,12 @@
         <v>5</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f>SUM(D56,D45,D34,D23,D12)</f>
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Time Sheet/Patrick.xlsx
+++ b/Time Sheet/Patrick.xlsx
@@ -163,8 +163,9 @@
 Added sample GUI with Progress Table</t>
   </si>
   <si>
-    <t>Updated time sheet and had project meeting
-Added sample code for encrypting files</t>
+    <t xml:space="preserve">Updated time sheet and had project meeting
+Added sample code for encrypting files and saving files
+</t>
   </si>
 </sst>
 </file>
@@ -557,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -1011,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>

--- a/Time Sheet/Patrick.xlsx
+++ b/Time Sheet/Patrick.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t xml:space="preserve">Time recorded for: Patrick Cura – Database Evaluator </t>
   </si>
@@ -166,6 +166,11 @@
     <t xml:space="preserve">Updated time sheet and had project meeting
 Added sample code for encrypting files and saving files
 </t>
+  </si>
+  <si>
+    <t>Improved sample code for saving file in any directory
+Created Use Case diagram
+Drafted Activity diagram</t>
   </si>
 </sst>
 </file>
@@ -559,7 +564,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,13 +1029,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
@@ -1038,7 +1047,9 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
@@ -1080,13 +1091,13 @@
       </c>
       <c r="D56" s="5">
         <f>SUM(D49:D55)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D59">
         <f>SUM(D56,D45,D34,D23,D12)</f>
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Time Sheet/Patrick.xlsx
+++ b/Time Sheet/Patrick.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t xml:space="preserve">Time recorded for: Patrick Cura – Database Evaluator </t>
   </si>
@@ -171,6 +171,13 @@
     <t>Improved sample code for saving file in any directory
 Created Use Case diagram
 Drafted Activity diagram</t>
+  </si>
+  <si>
+    <t>Added sample code for getting list of databases</t>
+  </si>
+  <si>
+    <t>Had Adviser meeting and meeting with Robert
+Updated group timesheet</t>
   </si>
 </sst>
 </file>
@@ -563,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,23 +1048,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
@@ -1091,13 +1104,13 @@
       </c>
       <c r="D56" s="5">
         <f>SUM(D49:D55)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D59">
         <f>SUM(D56,D45,D34,D23,D12)</f>
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
